--- a/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/p1-customers.xlsx
+++ b/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/p1-customers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85d1826f63ab8b69/Udacity/predictive_analytics_for_business/projects/predicting_catalog_demands/All_P1_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_EC2A7C7E3A73EFF2E4E0B280FB643DEB27A02E6D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08FDF8BE-986A-904E-9039-F7D3DABCB573}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_EC2A7C7E3A73EFF2E4E0B280FB643DEB27A02E6D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1CBB2A9E-46BF-6D44-98AB-F080E83389BD}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="22680" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="22680" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p1-customers" sheetId="1" r:id="rId1"/>
@@ -15028,12 +15028,16 @@
   <dimension ref="A1:L2376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
